--- a/branches/transfer-out-resource_fig-17/StructureDefinition-transferout.xlsx
+++ b/branches/transfer-out-resource_fig-17/StructureDefinition-transferout.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T07:02:51+00:00</t>
+    <t>2023-02-02T11:55:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Service Request for Transfer-Out</t>
+    <t>This profile will be used to capture a Transfer-Out request for a patient</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -667,6 +667,9 @@
     <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
   </si>
   <si>
+    <t>proposal</t>
+  </si>
+  <si>
     <t>The kind of service request.</t>
   </si>
   <si>
@@ -862,7 +865,7 @@
     <t>ServiceRequest.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Location|Device)
+    <t xml:space="preserve">Reference(http://openhie.org/fhir/hiv-program-monitoring/StructureDefinition/hiv-patient)
 </t>
   </si>
   <si>
@@ -926,8 +929,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiming</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>When service should occur</t>
@@ -940,7 +943,7 @@
 </t>
   </si>
   <si>
-    <t>open</t>
+    <t>closed</t>
   </si>
   <si>
     <t>Request.occurrence[x]</t>
@@ -962,10 +965,6 @@
   </si>
   <si>
     <t>occurrenceDateTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
   </si>
   <si>
     <t>ServiceRequest.asNeeded[x]</t>
@@ -3762,7 +3761,7 @@
         <v>81</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>81</v>
+        <v>210</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>81</v>
@@ -3780,10 +3779,10 @@
         <v>198</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>81</v>
@@ -3816,16 +3815,16 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>81</v>
@@ -3833,10 +3832,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3859,19 +3858,19 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>81</v>
@@ -3896,13 +3895,13 @@
         <v>81</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>81</v>
@@ -3920,7 +3919,7 @@
         <v>81</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3938,13 +3937,13 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>81</v>
@@ -3952,10 +3951,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3981,10 +3980,10 @@
         <v>109</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3992,7 +3991,7 @@
         <v>81</v>
       </c>
       <c r="Q20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>81</v>
@@ -4016,10 +4015,10 @@
         <v>198</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>81</v>
@@ -4037,7 +4036,7 @@
         <v>81</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4052,16 +4051,16 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>81</v>
@@ -4069,10 +4068,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4095,70 +4094,70 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="O21" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q21" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="P21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q21" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="R21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4173,13 +4172,13 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4190,14 +4189,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4216,16 +4215,16 @@
         <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4251,13 +4250,13 @@
         <v>81</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>81</v>
@@ -4275,7 +4274,7 @@
         <v>81</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4290,31 +4289,31 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4333,16 +4332,16 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4368,13 +4367,13 @@
         <v>81</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>81</v>
@@ -4392,7 +4391,7 @@
         <v>81</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4401,7 +4400,7 @@
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>101</v>
@@ -4410,24 +4409,24 @@
         <v>81</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4450,17 +4449,17 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>81</v>
@@ -4509,7 +4508,7 @@
         <v>81</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4527,10 +4526,10 @@
         <v>81</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -4541,10 +4540,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4567,13 +4566,13 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4624,7 +4623,7 @@
         <v>81</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>89</v>
@@ -4639,31 +4638,31 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4682,13 +4681,13 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4739,7 +4738,7 @@
         <v>81</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4754,35 +4753,35 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>89</v>
@@ -4797,13 +4796,13 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4842,17 +4841,17 @@
         <v>81</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4867,37 +4866,37 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>89</v>
@@ -4912,13 +4911,13 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4969,7 +4968,7 @@
         <v>81</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4984,19 +4983,19 @@
         <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29">
@@ -5060,7 +5059,7 @@
         <v>81</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y29" t="s" s="2">
         <v>310</v>
@@ -5142,7 +5141,7 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="L30" t="s" s="2">
         <v>316</v>
@@ -5374,7 +5373,7 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s" s="2">
         <v>336</v>
@@ -5409,7 +5408,7 @@
         <v>81</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y32" t="s" s="2">
         <v>339</v>
@@ -5476,10 +5475,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>81</v>
@@ -5608,7 +5607,7 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>355</v>
@@ -5641,7 +5640,7 @@
         <v>81</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y34" t="s" s="2">
         <v>357</v>
@@ -5838,7 +5837,7 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>365</v>
@@ -5873,7 +5872,7 @@
         <v>81</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y36" t="s" s="2">
         <v>368</v>
@@ -6421,7 +6420,7 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>407</v>
@@ -6458,7 +6457,7 @@
         <v>81</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y41" t="s" s="2">
         <v>411</v>
@@ -6615,7 +6614,7 @@
         <v>418</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>419</v>
@@ -6730,7 +6729,7 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>425</v>

--- a/branches/transfer-out-resource_fig-17/StructureDefinition-transferout.xlsx
+++ b/branches/transfer-out-resource_fig-17/StructureDefinition-transferout.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T11:55:49+00:00</t>
+    <t>2023-02-02T11:57:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
